--- a/player/player.xlsx
+++ b/player/player.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatematsukenichirou/Desktop/my_page/MyGame/ヤムチャゲーム/player/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BED0B82-5D3F-FA45-B26C-4041DDAB90CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F027840D-C1FC-D64F-9147-D69515F96AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16260" xr2:uid="{38E9AA44-A879-5D4F-8E05-E020F2FB1978}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -45,11 +45,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ken</t>
+    <t>image_names</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>image_names</t>
+    <t>PLAYER_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLAYER_2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -434,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1553A4-FDA5-9843-B640-E65AF6314D7D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -447,12 +451,17 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
